--- a/FASE1/DOCS/EVIDENCIAS_GRUPALES/ENTREGABLES/Planilla de Requerimientos-2.xlsx
+++ b/FASE1/DOCS/EVIDENCIAS_GRUPALES/ENTREGABLES/Planilla de Requerimientos-2.xlsx
@@ -43,7 +43,7 @@
     <t>RF.1</t>
   </si>
   <si>
-    <t>Registro de usuarios</t>
+    <t>El usuario se registra en el sistema</t>
   </si>
   <si>
     <t>Funcional</t>
@@ -61,7 +61,7 @@
     <t>RF.2</t>
   </si>
   <si>
-    <t>Login de usuarios</t>
+    <t>permitir acceso a usuarios mediante autenticación</t>
   </si>
   <si>
     <t>El sistema debe permitir la autenticación de usuarios</t>
@@ -70,7 +70,7 @@
     <t>RF.3</t>
   </si>
   <si>
-    <t>Asignacion de roles</t>
+    <t>El sistema asigna roles a cada usuario</t>
   </si>
   <si>
     <t>Administrador</t>
@@ -82,7 +82,7 @@
     <t>RF.4</t>
   </si>
   <si>
-    <t>Catalogo de productos</t>
+    <t>El usuario visualiza el catálogo de productos</t>
   </si>
   <si>
     <t>El sistema debe visualizar un catalogo de productos</t>
@@ -91,7 +91,7 @@
     <t>RF.5</t>
   </si>
   <si>
-    <t>Catalogo filtrado por categoría</t>
+    <t>El usuario filtra productos por categoría</t>
   </si>
   <si>
     <t>El sistema debe permitir agregar, modificar y eliminar productos del carrito.</t>
@@ -100,7 +100,7 @@
     <t>RF.6</t>
   </si>
   <si>
-    <t>Carrito de compras</t>
+    <t>El usuario agrega productos al carrito de compras</t>
   </si>
   <si>
     <t>Cliente</t>
@@ -112,7 +112,8 @@
     <t>RF.7</t>
   </si>
   <si>
-    <t>Suma y resta de productos carro compras</t>
+    <t>El usuario gestiona las cantidades de productos en 
+el carrito</t>
   </si>
   <si>
     <t>El usuario puede sumar o restar productos del carrito de compras.</t>
@@ -121,7 +122,7 @@
     <t>RF.8</t>
   </si>
   <si>
-    <t>Gestion de pedidos</t>
+    <t>El usuario gestiona sus pedidos realizados</t>
   </si>
   <si>
     <t>Cliente,Administrador</t>
@@ -133,7 +134,7 @@
     <t>RF.9</t>
   </si>
   <si>
-    <t>Pedidos personalizados</t>
+    <t>El usuario crea un pedido personalizado</t>
   </si>
   <si>
     <t>El usuario podra crear un pedido personalizado.</t>
@@ -142,7 +143,8 @@
     <t>RF.10</t>
   </si>
   <si>
-    <t>Gestión de pedidos con zona de despacho</t>
+    <t>El usuario realiza un pedido con selección de zona 
+de despacho</t>
   </si>
   <si>
     <t>El sistema debe registrar pedidos con selección de zona de despacho.</t>
@@ -151,7 +153,8 @@
     <t>RF.11</t>
   </si>
   <si>
-    <t>Seguimiento de estado de pedido</t>
+    <t>El usuario realiza seguimiento del estado de su 
+pedido</t>
   </si>
   <si>
     <t>El cliente podrá visualizar el estado de su pedido en tiempo real.</t>
@@ -160,7 +163,8 @@
     <t>RF.12</t>
   </si>
   <si>
-    <t>Gestión administrativa (backoffice)</t>
+    <t>El administrador gestiona el sistema desde el 
+backoffice</t>
   </si>
   <si>
     <t>El administrador debe gestionar productos, stock, usuarios, roles, zonas, banners y promociones.</t>
@@ -169,7 +173,8 @@
     <t>RF.13</t>
   </si>
   <si>
-    <t>Generación de reportes exportables</t>
+    <t>El administrador genera reportes y los exporta a 
+PDF y Excel</t>
   </si>
   <si>
     <t>El sistema debe generar reportes de pedidos y ventas en PDF y Excel.</t>
@@ -178,7 +183,7 @@
     <t>RF.14</t>
   </si>
   <si>
-    <t>Notificaciones por correo</t>
+    <t>El sistema envía notificaciones por correo electrónico</t>
   </si>
   <si>
     <t>El sistema debe enviar correos automáticos en eventos clave: registro, compra y cambio de estado.</t>
@@ -815,7 +820,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.14"/>
-    <col customWidth="1" min="2" max="2" width="43.14"/>
+    <col customWidth="1" min="2" max="2" width="50.29"/>
     <col customWidth="1" min="3" max="3" width="29.43"/>
     <col customWidth="1" min="4" max="4" width="42.57"/>
     <col customWidth="1" min="5" max="5" width="99.14"/>
@@ -963,7 +968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="24.75" customHeight="1">
+    <row r="7" ht="33.0" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -983,7 +988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="24.75" customHeight="1">
+    <row r="8" ht="28.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -1043,7 +1048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="24.75" customHeight="1">
+    <row r="11" ht="29.25" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -1063,7 +1068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="24.75" customHeight="1">
+    <row r="12" ht="28.5" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
@@ -1083,7 +1088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="24.75" customHeight="1">
+    <row r="13" ht="27.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -1103,7 +1108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" ht="24.75" customHeight="1">
+    <row r="14" ht="28.5" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>48</v>
       </c>

--- a/FASE1/DOCS/EVIDENCIAS_GRUPALES/ENTREGABLES/Planilla de Requerimientos-2.xlsx
+++ b/FASE1/DOCS/EVIDENCIAS_GRUPALES/ENTREGABLES/Planilla de Requerimientos-2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="143">
   <si>
     <t>[R-N°]</t>
   </si>
@@ -43,7 +43,7 @@
     <t>RF.1</t>
   </si>
   <si>
-    <t>El usuario se registra en el sistema</t>
+    <t>registrar el usuario en el sistema</t>
   </si>
   <si>
     <t>Funcional</t>
@@ -61,7 +61,7 @@
     <t>RF.2</t>
   </si>
   <si>
-    <t>permitir acceso a usuarios mediante autenticación</t>
+    <t>Permitir acceso a usuarios mediante autenticación</t>
   </si>
   <si>
     <t>El sistema debe permitir la autenticación de usuarios</t>
@@ -70,7 +70,7 @@
     <t>RF.3</t>
   </si>
   <si>
-    <t>El sistema asigna roles a cada usuario</t>
+    <t>Permitir la asignacion de roles a cada usuario</t>
   </si>
   <si>
     <t>Administrador</t>
@@ -82,7 +82,7 @@
     <t>RF.4</t>
   </si>
   <si>
-    <t>El usuario visualiza el catálogo de productos</t>
+    <t>Visualizar el catálogo de productos</t>
   </si>
   <si>
     <t>El sistema debe visualizar un catalogo de productos</t>
@@ -91,7 +91,7 @@
     <t>RF.5</t>
   </si>
   <si>
-    <t>El usuario filtra productos por categoría</t>
+    <t>Filtrar productos por categoría</t>
   </si>
   <si>
     <t>El sistema debe permitir agregar, modificar y eliminar productos del carrito.</t>
@@ -100,7 +100,7 @@
     <t>RF.6</t>
   </si>
   <si>
-    <t>El usuario agrega productos al carrito de compras</t>
+    <t>Agregar productos al carrito de compras</t>
   </si>
   <si>
     <t>Cliente</t>
@@ -112,7 +112,7 @@
     <t>RF.7</t>
   </si>
   <si>
-    <t>El usuario gestiona las cantidades de productos en 
+    <t>Gestionar las cantidades de productos en 
 el carrito</t>
   </si>
   <si>
@@ -122,7 +122,7 @@
     <t>RF.8</t>
   </si>
   <si>
-    <t>El usuario gestiona sus pedidos realizados</t>
+    <t>Permitir gestionar sus pedidos realizados</t>
   </si>
   <si>
     <t>Cliente,Administrador</t>
@@ -134,7 +134,7 @@
     <t>RF.9</t>
   </si>
   <si>
-    <t>El usuario crea un pedido personalizado</t>
+    <t>Crear un pedido personalizado</t>
   </si>
   <si>
     <t>El usuario podra crear un pedido personalizado.</t>
@@ -143,7 +143,7 @@
     <t>RF.10</t>
   </si>
   <si>
-    <t>El usuario realiza un pedido con selección de zona 
+    <t>Realizar un pedido con selección de zona 
 de despacho</t>
   </si>
   <si>
@@ -153,7 +153,7 @@
     <t>RF.11</t>
   </si>
   <si>
-    <t>El usuario realiza seguimiento del estado de su 
+    <t>Realizar seguimiento del estado de su 
 pedido</t>
   </si>
   <si>
@@ -163,8 +163,7 @@
     <t>RF.12</t>
   </si>
   <si>
-    <t>El administrador gestiona el sistema desde el 
-backoffice</t>
+    <t>Permitir gestionar el sistema desde el backoffice</t>
   </si>
   <si>
     <t>El administrador debe gestionar productos, stock, usuarios, roles, zonas, banners y promociones.</t>
@@ -173,7 +172,7 @@
     <t>RF.13</t>
   </si>
   <si>
-    <t>El administrador genera reportes y los exporta a 
+    <t>Permitir generar reportes y los exporta a 
 PDF y Excel</t>
   </si>
   <si>
@@ -183,7 +182,10 @@
     <t>RF.14</t>
   </si>
   <si>
-    <t>El sistema envía notificaciones por correo electrónico</t>
+    <t>Envíar notificaciones por correo electrónico</t>
+  </si>
+  <si>
+    <t>Sistema, Administrador</t>
   </si>
   <si>
     <t>El sistema debe enviar correos automáticos en eventos clave: registro, compra y cambio de estado.</t>
@@ -292,7 +294,7 @@
     <t>Sistema seguro</t>
   </si>
   <si>
-    <t>No Funcional</t>
+    <t>No Funcional - seguridad</t>
   </si>
   <si>
     <t>Equipo Desarrollo</t>
@@ -441,6 +443,9 @@
   </si>
   <si>
     <t>Entregar rapidez en respuestas</t>
+  </si>
+  <si>
+    <t>No Funcional</t>
   </si>
   <si>
     <t>Que al realizar las consultas de las habitaciones o cualquier funcionalidad del sitema,  se hagan dentro de un tiempo prudente</t>
@@ -488,7 +493,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +504,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -555,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -571,13 +582,16 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -912,7 +926,7 @@
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -941,7 +955,7 @@
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -952,7 +966,7 @@
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -992,7 +1006,7 @@
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1012,7 +1026,7 @@
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1032,7 +1046,7 @@
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1052,7 +1066,7 @@
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1072,7 +1086,7 @@
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1092,7 +1106,7 @@
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1112,7 +1126,7 @@
       <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1132,17 +1146,17 @@
       <c r="A15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>11</v>
@@ -1150,19 +1164,19 @@
     </row>
     <row r="16" ht="24.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>11</v>
@@ -1170,19 +1184,19 @@
     </row>
     <row r="17" ht="28.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>11</v>
@@ -1190,19 +1204,19 @@
     </row>
     <row r="18" ht="28.5" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="B18" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="C18" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>11</v>
@@ -1210,19 +1224,19 @@
     </row>
     <row r="19" ht="31.5" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="B19" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="C19" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>11</v>
@@ -1230,19 +1244,19 @@
     </row>
     <row r="20" ht="24.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="B20" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="C20" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>11</v>
@@ -1250,19 +1264,19 @@
     </row>
     <row r="21" ht="24.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="B21" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="C21" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>11</v>
@@ -1270,19 +1284,19 @@
     </row>
     <row r="22" ht="30.0" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>11</v>
@@ -1290,273 +1304,273 @@
     </row>
     <row r="23" ht="24.0" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>90</v>
+      <c r="A24" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="A26" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="A28" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="A29" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="A30" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="A31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="A32" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="A33" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="A34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="A35" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="A36" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="A37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="A38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="A39" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="A40" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="A41" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+      <c r="A42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="A43" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+      <c r="A44" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
+      <c r="A45" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="A46" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" ht="14.25" customHeight="1"/>
     <row r="48" ht="14.25" customHeight="1"/>
@@ -2557,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -2567,132 +2581,132 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>125</v>
       </c>
+      <c r="F2" s="11" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>130</v>
       </c>
+      <c r="F3" s="11" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>94</v>
+      <c r="E4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>94</v>
+      <c r="C5" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>94</v>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" ht="35.25" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
